--- a/Documentation/Potentiometer Scaling.xlsx
+++ b/Documentation/Potentiometer Scaling.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\workspace\FRCDevelopment2015\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22830" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -308,11 +304,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="210847704"/>
-        <c:axId val="210848096"/>
+        <c:axId val="340061296"/>
+        <c:axId val="340061688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210847704"/>
+        <c:axId val="340061296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210848096"/>
+        <c:crossAx val="340061688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210848096"/>
+        <c:axId val="340061688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210847704"/>
+        <c:crossAx val="340061296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1318,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
